--- a/docs/requirements/MOSIP_Reporting_Requirements_18Dec18.xlsx
+++ b/docs/requirements/MOSIP_Reporting_Requirements_18Dec18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\Bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B73E5BE-CECB-4DC8-A16F-42479105D0E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D10B7DD7-BAD0-4E49-9F36-28E8BCDD8F97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,6 +128,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{F632F010-D56B-4280-BE92-A9645C13AE89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+De-scoped. Not part of v1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -550,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +675,14 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
@@ -788,7 +820,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -881,13 +913,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1236,10 +1269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -2665,7 +2698,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -2808,7 +2841,7 @@
       <c r="J34" s="34"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -3090,6 +3123,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3296,42 +3364,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D351DE-B771-47E9-8E25-DFE64824DCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE28DA0B-B46D-4A05-A39B-1371DC3CEC69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2A5AF2-12AE-47DF-BCFE-DDA32CD273AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3348,29 +3406,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE28DA0B-B46D-4A05-A39B-1371DC3CEC69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D351DE-B771-47E9-8E25-DFE64824DCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_Reporting_Requirements_18Dec18.xlsx
+++ b/docs/requirements/MOSIP_Reporting_Requirements_18Dec18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D10B7DD7-BAD0-4E49-9F36-28E8BCDD8F97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D885E1EE-A67C-47E0-9F48-4553A524D45D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{FAFBD67C-F687-4FFB-AE8D-86F4375C5B13}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{433A2E64-D717-4D7B-A781-7B9B5481C395}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As part of "Packet Data Validation" Report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{553E6455-0F67-4177-8DAC-1E9CF9625572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As part of "Packet Data Validation" Report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{5F0DEEAC-6BD7-48A8-A4AF-FB5D7B80095D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As part of "Packet Data Validation" Report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{9CE782F7-87D0-40A3-9363-F637035F3C41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As part of "Packet Data Validation" Report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{FF6A6072-BAFC-48FF-A688-7F7DD67505FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MINDTREE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As part of "Packet Data Validation" Report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{FAFBD67C-F687-4FFB-AE8D-86F4375C5B13}">
       <text>
         <r>
           <rPr>
@@ -80,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{14E335C3-C280-4C89-9BE0-719DF694E252}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{14E335C3-C280-4C89-9BE0-719DF694E252}">
       <text>
         <r>
           <rPr>
@@ -104,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{BCDDE454-EB15-4250-ABC4-B502F7D18FB9}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{BCDDE454-EB15-4250-ABC4-B502F7D18FB9}">
       <text>
         <r>
           <rPr>
@@ -128,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{F632F010-D56B-4280-BE92-A9645C13AE89}">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{F632F010-D56B-4280-BE92-A9645C13AE89}">
       <text>
         <r>
           <rPr>
@@ -157,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="120">
   <si>
     <t>Reporting</t>
   </si>
@@ -444,9 +564,6 @@
     <t>EoD Process</t>
   </si>
   <si>
-    <t>Virus Scan</t>
-  </si>
-  <si>
     <t>Packet Decryption</t>
   </si>
   <si>
@@ -568,6 +685,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Virus Scan on Encrypted Packet</t>
+  </si>
+  <si>
+    <t>Virus Scan on Decrypted Packet Data</t>
+  </si>
+  <si>
+    <t>EC Response</t>
+  </si>
+  <si>
+    <t>EC Data Validation Failure/Update</t>
   </si>
 </sst>
 </file>
@@ -820,7 +949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,14 +1042,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1269,10 +1399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -2152,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J45"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -2192,7 +2322,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>67</v>
@@ -2207,7 +2337,7 @@
         <v>70</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2225,7 +2355,7 @@
     </row>
     <row r="6" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>72</v>
@@ -2265,7 +2395,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>72</v>
@@ -2290,7 +2420,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>72</v>
@@ -2340,7 +2470,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>72</v>
@@ -2365,10 +2495,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>116</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -2380,7 +2510,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>72</v>
@@ -2403,7 +2533,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>72</v>
@@ -2424,14 +2554,22 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="32"/>
       <c r="J15" s="34" t="s">
         <v>72</v>
@@ -2439,34 +2577,28 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>72</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="34" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="34" t="s">
         <v>72</v>
@@ -2479,14 +2611,12 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="D18" s="32"/>
       <c r="E18" s="34" t="s">
         <v>72</v>
       </c>
@@ -2502,7 +2632,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>72</v>
@@ -2525,7 +2655,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>72</v>
@@ -2547,8 +2677,8 @@
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
-        <v>112</v>
+      <c r="B21" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>72</v>
@@ -2571,7 +2701,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>72</v>
@@ -2582,9 +2712,7 @@
       <c r="E22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="F22" s="32"/>
       <c r="G22" s="34" t="s">
         <v>72</v>
       </c>
@@ -2596,7 +2724,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>72</v>
@@ -2607,7 +2735,9 @@
       <c r="E23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="G23" s="34" t="s">
         <v>72</v>
       </c>
@@ -2618,14 +2748,18 @@
       <c r="J23" s="34"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>110</v>
+      <c r="B24" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="32"/>
       <c r="G24" s="34" t="s">
         <v>72</v>
@@ -2638,7 +2772,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>72</v>
@@ -2657,7 +2791,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="32"/>
@@ -2674,7 +2808,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>72</v>
@@ -2698,52 +2832,44 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="42" t="s">
-        <v>103</v>
+      <c r="B28" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="I28" s="32"/>
       <c r="J28" s="34"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="H29" s="34"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
+      <c r="J29" s="34" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>72</v>
@@ -2754,19 +2880,21 @@
       <c r="E30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="H30" s="34"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
-        <v>81</v>
+      <c r="B31" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>72</v>
@@ -2777,25 +2905,27 @@
       <c r="E31" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="F31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="32"/>
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="D32" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F32" s="32"/>
       <c r="G32" s="34" t="s">
         <v>72</v>
@@ -2808,15 +2938,21 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="G33" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="H33" s="34" t="s">
         <v>72</v>
       </c>
@@ -2825,15 +2961,21 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="G34" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="H34" s="34" t="s">
         <v>72</v>
       </c>
@@ -2841,47 +2983,35 @@
       <c r="J34" s="34"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="H35" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="32"/>
       <c r="J35" s="34"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="33" t="s">
-        <v>86</v>
+      <c r="B36" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="G36" s="32"/>
       <c r="H36" s="34" t="s">
         <v>72</v>
       </c>
@@ -2889,22 +3019,16 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="33" t="s">
-        <v>87</v>
+      <c r="B37" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="G37" s="32"/>
       <c r="H37" s="34" t="s">
         <v>72</v>
       </c>
@@ -2912,33 +3036,43 @@
       <c r="J37" s="34"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
-        <v>88</v>
+      <c r="B38" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="G38" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="J38" s="34"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F39" s="32"/>
       <c r="G39" s="34" t="s">
         <v>72</v>
@@ -2951,13 +3085,17 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F40" s="32"/>
       <c r="G40" s="34" t="s">
         <v>72</v>
@@ -2970,9 +3108,11 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="34"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
@@ -2987,7 +3127,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>72</v>
@@ -3006,7 +3146,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>72</v>
@@ -3025,11 +3165,9 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>72</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C44" s="34"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -3044,7 +3182,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>72</v>
@@ -3060,6 +3198,63 @@
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="32"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3083,7 +3278,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -3123,41 +3318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3364,32 +3524,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D351DE-B771-47E9-8E25-DFE64824DCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE28DA0B-B46D-4A05-A39B-1371DC3CEC69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2A5AF2-12AE-47DF-BCFE-DDA32CD273AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3406,4 +3576,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE28DA0B-B46D-4A05-A39B-1371DC3CEC69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D351DE-B771-47E9-8E25-DFE64824DCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>